--- a/data/par/6.xlsx
+++ b/data/par/6.xlsx
@@ -481,23 +481,23 @@
         <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>8.562924e-07</v>
+        <v>0.000115541</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.1080062389373779</v>
+        <v>0.1060059070587158</v>
       </c>
       <c r="B8" t="n">
-        <v>8.567788e-07</v>
+        <v>0.0001154651</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.2160124778747559</v>
+        <v>0.2110121250152588</v>
       </c>
       <c r="B9" t="n">
-        <v>8.571704e-07</v>
+        <v>0.0001154412</v>
       </c>
     </row>
     <row r="10">
@@ -505,367 +505,367 @@
         <v>0.3030173778533936</v>
       </c>
       <c r="B10" t="n">
-        <v>8.562919e-07</v>
+        <v>0.0001154349</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.4120235443115234</v>
+        <v>0.4160237312316895</v>
       </c>
       <c r="B11" t="n">
-        <v>8.574081e-07</v>
+        <v>0.0001153562</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.5210299491882324</v>
+        <v>0.5010285377502441</v>
       </c>
       <c r="B12" t="n">
-        <v>8.572143e-07</v>
+        <v>0.0001153725</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.6060347557067871</v>
+        <v>0.6220357418060303</v>
       </c>
       <c r="B13" t="n">
-        <v>8.566419e-07</v>
+        <v>0.0001152848</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.7040402889251709</v>
+        <v>0.7340421676635742</v>
       </c>
       <c r="B14" t="n">
-        <v>8.579547e-07</v>
+        <v>0.0001152365</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.8070461750030518</v>
+        <v>0.838047981262207</v>
       </c>
       <c r="B15" t="n">
-        <v>8.582992e-07</v>
+        <v>0.0001151765</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.9140524864196777</v>
+        <v>0.9090521335601807</v>
       </c>
       <c r="B16" t="n">
-        <v>8.574082e-07</v>
+        <v>0.0001151729</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1.022058486938477</v>
+        <v>1.015058040618896</v>
       </c>
       <c r="B17" t="n">
-        <v>8.582047e-07</v>
+        <v>0.0001151061</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1.124064445495605</v>
+        <v>1.112063646316528</v>
       </c>
       <c r="B18" t="n">
-        <v>8.590048e-07</v>
+        <v>0.00011503</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1.233070611953735</v>
+        <v>1.201068639755249</v>
       </c>
       <c r="B19" t="n">
-        <v>8.581512e-07</v>
+        <v>0.0001149672</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1.327075958251953</v>
+        <v>1.302074670791626</v>
       </c>
       <c r="B20" t="n">
-        <v>8.594038e-07</v>
+        <v>0.0001149396</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1.406080722808838</v>
+        <v>1.406080484390259</v>
       </c>
       <c r="B21" t="n">
-        <v>8.594769e-07</v>
+        <v>0.0001148214</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1.50908637046814</v>
+        <v>1.505086183547974</v>
       </c>
       <c r="B22" t="n">
-        <v>8.589296e-07</v>
+        <v>0.0001147934</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1.609092235565186</v>
+        <v>1.622092723846436</v>
       </c>
       <c r="B23" t="n">
-        <v>8.588991e-07</v>
+        <v>0.000114628</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1.701097249984741</v>
+        <v>1.72809886932373</v>
       </c>
       <c r="B24" t="n">
-        <v>8.599529e-07</v>
+        <v>0.0001145729</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1.808103561401367</v>
+        <v>1.831104755401611</v>
       </c>
       <c r="B25" t="n">
-        <v>8.607871e-07</v>
+        <v>0.0001145851</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1.903109073638916</v>
+        <v>1.903108835220337</v>
       </c>
       <c r="B26" t="n">
-        <v>8.614869000000001e-07</v>
+        <v>0.0001144987</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2.016115188598633</v>
+        <v>2.006114721298218</v>
       </c>
       <c r="B27" t="n">
-        <v>8.617871e-07</v>
+        <v>0.0001145452</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2.102120399475098</v>
+        <v>2.102120161056519</v>
       </c>
       <c r="B28" t="n">
-        <v>8.622979e-07</v>
+        <v>0.0001144852</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2.209126472473145</v>
+        <v>2.209126234054565</v>
       </c>
       <c r="B29" t="n">
-        <v>8.618121e-07</v>
+        <v>0.0001144319</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2.316132783889771</v>
+        <v>2.311132431030273</v>
       </c>
       <c r="B30" t="n">
-        <v>8.633831e-07</v>
+        <v>0.0001143669</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2.406137704849243</v>
+        <v>2.401137351989746</v>
       </c>
       <c r="B31" t="n">
-        <v>8.629224e-07</v>
+        <v>0.0001144174</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2.503143310546875</v>
+        <v>2.502143144607544</v>
       </c>
       <c r="B32" t="n">
-        <v>8.632925e-07</v>
+        <v>0.0001144027</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2.607149124145508</v>
+        <v>2.605149030685425</v>
       </c>
       <c r="B33" t="n">
-        <v>8.646327e-07</v>
+        <v>0.0001143402</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2.71115517616272</v>
+        <v>2.709155082702637</v>
       </c>
       <c r="B34" t="n">
-        <v>8.653972e-07</v>
+        <v>0.0001142919</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2.808160543441772</v>
+        <v>2.802160263061523</v>
       </c>
       <c r="B35" t="n">
-        <v>8.660049e-07</v>
+        <v>0.0001143209</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2.912166833877563</v>
+        <v>2.911166667938232</v>
       </c>
       <c r="B36" t="n">
-        <v>8.651828e-07</v>
+        <v>0.0001142633</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>3.011172294616699</v>
+        <v>3.009172201156616</v>
       </c>
       <c r="B37" t="n">
-        <v>8.658025e-07</v>
+        <v>0.0001143033</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>3.102177381515503</v>
+        <v>3.12117862701416</v>
       </c>
       <c r="B38" t="n">
-        <v>8.677101e-07</v>
+        <v>0.0001142611</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>3.213183879852295</v>
+        <v>3.204183340072632</v>
       </c>
       <c r="B39" t="n">
-        <v>8.67661e-07</v>
+        <v>0.0001141769</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>3.309189558029175</v>
+        <v>3.308189153671265</v>
       </c>
       <c r="B40" t="n">
-        <v>8.673334e-07</v>
+        <v>0.0001142456</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>3.408195018768311</v>
+        <v>3.416195631027222</v>
       </c>
       <c r="B41" t="n">
-        <v>8.683713e-07</v>
+        <v>0.0001142078</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>3.513200998306274</v>
+        <v>3.508200645446777</v>
       </c>
       <c r="B42" t="n">
-        <v>8.693198e-07</v>
+        <v>0.0001141895</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>3.609206438064575</v>
+        <v>3.600206136703491</v>
       </c>
       <c r="B43" t="n">
-        <v>8.684336e-07</v>
+        <v>0.0001141644</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>3.700211763381958</v>
+        <v>3.704211950302124</v>
       </c>
       <c r="B44" t="n">
-        <v>8.683009e-07</v>
+        <v>0.000114144</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>3.80321741104126</v>
+        <v>3.807217836380005</v>
       </c>
       <c r="B45" t="n">
-        <v>8.68913e-07</v>
+        <v>0.0001141417</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>3.90622353553772</v>
+        <v>3.907223463058472</v>
       </c>
       <c r="B46" t="n">
-        <v>8.70361e-07</v>
+        <v>0.0001140928</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>4.007229328155518</v>
+        <v>4.016229867935181</v>
       </c>
       <c r="B47" t="n">
-        <v>8.707526e-07</v>
+        <v>0.0001140518</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>4.117235660552979</v>
+        <v>4.108234882354736</v>
       </c>
       <c r="B48" t="n">
-        <v>8.712635e-07</v>
+        <v>0.0001140613</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>4.20724081993103</v>
+        <v>4.207240581512451</v>
       </c>
       <c r="B49" t="n">
-        <v>8.715914e-07</v>
+        <v>0.0001139996</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>4.304246425628662</v>
+        <v>4.317246913909912</v>
       </c>
       <c r="B50" t="n">
-        <v>8.713258e-07</v>
+        <v>0.0001139145</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>4.409252166748047</v>
+        <v>4.409252405166626</v>
       </c>
       <c r="B51" t="n">
-        <v>8.717687e-07</v>
+        <v>0.0001139266</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>4.519258737564087</v>
+        <v>4.508257627487183</v>
       </c>
       <c r="B52" t="n">
-        <v>8.718259e-07</v>
+        <v>0.0001138737</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>4.625264406204224</v>
+        <v>4.61626410484314</v>
       </c>
       <c r="B53" t="n">
-        <v>8.715146e-07</v>
+        <v>0.0001138147</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>4.714269876480103</v>
+        <v>4.702268838882446</v>
       </c>
       <c r="B54" t="n">
-        <v>8.722241e-07</v>
+        <v>0.0001138647</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>4.810275077819824</v>
+        <v>4.800274610519409</v>
       </c>
       <c r="B55" t="n">
-        <v>8.731326e-07</v>
+        <v>0.0001138248</v>
       </c>
     </row>
     <row r="56">
@@ -873,791 +873,791 @@
         <v>4.909280776977539</v>
       </c>
       <c r="B56" t="n">
-        <v>8.724759e-07</v>
+        <v>0.0001138326</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>5.011286735534668</v>
+        <v>5.010286569595337</v>
       </c>
       <c r="B57" t="n">
-        <v>8.722423e-07</v>
+        <v>0.0001138254</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>5.118292808532715</v>
+        <v>5.100291728973389</v>
       </c>
       <c r="B58" t="n">
-        <v>8.735901e-07</v>
+        <v>0.0001137656</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>5.225299119949341</v>
+        <v>5.202297449111938</v>
       </c>
       <c r="B59" t="n">
-        <v>8.738287e-07</v>
+        <v>0.000113709</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>5.315304040908813</v>
+        <v>5.310303688049316</v>
       </c>
       <c r="B60" t="n">
-        <v>8.740117e-07</v>
+        <v>0.0001137669</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>5.406309127807617</v>
+        <v>5.409309387207031</v>
       </c>
       <c r="B61" t="n">
-        <v>8.73905e-07</v>
+        <v>0.0001137621</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>5.507314920425415</v>
+        <v>5.516315698623657</v>
       </c>
       <c r="B62" t="n">
-        <v>8.740812e-07</v>
+        <v>0.0001137147</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>5.615321159362793</v>
+        <v>5.603320598602295</v>
       </c>
       <c r="B63" t="n">
-        <v>8.746794e-07</v>
+        <v>0.0001136869</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>5.706326723098755</v>
+        <v>5.709326505661011</v>
       </c>
       <c r="B64" t="n">
-        <v>8.738493e-07</v>
+        <v>0.0001136667</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>5.80433201789856</v>
+        <v>5.816332817077637</v>
       </c>
       <c r="B65" t="n">
-        <v>8.748294e-07</v>
+        <v>0.0001136061</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>5.914338350296021</v>
+        <v>5.903337717056274</v>
       </c>
       <c r="B66" t="n">
-        <v>8.747933e-07</v>
+        <v>0.0001135284</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>6.010343790054321</v>
+        <v>6.00934362411499</v>
       </c>
       <c r="B67" t="n">
-        <v>8.758024e-07</v>
+        <v>0.0001135412</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>6.101349115371704</v>
+        <v>6.117349863052368</v>
       </c>
       <c r="B68" t="n">
-        <v>8.745479e-07</v>
+        <v>0.0001135316</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>6.206355094909668</v>
+        <v>6.20735502243042</v>
       </c>
       <c r="B69" t="n">
-        <v>8.746551e-07</v>
+        <v>0.0001135207</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>6.308360815048218</v>
+        <v>6.311361074447632</v>
       </c>
       <c r="B70" t="n">
-        <v>8.759195e-07</v>
+        <v>0.0001134615</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>6.409366607666016</v>
+        <v>6.419367074966431</v>
       </c>
       <c r="B71" t="n">
-        <v>8.762575e-07</v>
+        <v>0.000113416</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>6.511372327804565</v>
+        <v>6.50137186050415</v>
       </c>
       <c r="B72" t="n">
-        <v>8.753611e-07</v>
+        <v>0.0001134104</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>6.618378639221191</v>
+        <v>6.600377559661865</v>
       </c>
       <c r="B73" t="n">
-        <v>8.766401e-07</v>
+        <v>0.0001133223</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>6.72638463973999</v>
+        <v>6.709383726119995</v>
       </c>
       <c r="B74" t="n">
-        <v>8.762813e-07</v>
+        <v>0.0001132794</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>6.812389612197876</v>
+        <v>6.810389518737793</v>
       </c>
       <c r="B75" t="n">
-        <v>8.764985e-07</v>
+        <v>0.0001132282</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>6.919395923614502</v>
+        <v>6.908395290374756</v>
       </c>
       <c r="B76" t="n">
-        <v>8.774314e-07</v>
+        <v>0.0001132717</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>7.026401996612549</v>
+        <v>7.014401197433472</v>
       </c>
       <c r="B77" t="n">
-        <v>8.769396e-07</v>
+        <v>0.0001131306</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>7.107406616210938</v>
+        <v>7.106406450271606</v>
       </c>
       <c r="B78" t="n">
-        <v>8.777171e-07</v>
+        <v>0.0001131119</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>7.213412761688232</v>
+        <v>7.205412149429321</v>
       </c>
       <c r="B79" t="n">
-        <v>8.780218e-07</v>
+        <v>0.0001130865</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>7.305417776107788</v>
+        <v>7.314418315887451</v>
       </c>
       <c r="B80" t="n">
-        <v>8.778575e-07</v>
+        <v>0.0001130401</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>7.413424253463745</v>
+        <v>7.406423807144165</v>
       </c>
       <c r="B81" t="n">
-        <v>8.784244e-07</v>
+        <v>0.0001130276</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>7.510429859161377</v>
+        <v>7.50542950630188</v>
       </c>
       <c r="B82" t="n">
-        <v>8.786887e-07</v>
+        <v>0.0001129688</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>7.602434873580933</v>
+        <v>7.621435880661011</v>
       </c>
       <c r="B83" t="n">
-        <v>8.779872e-07</v>
+        <v>0.0001129214</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>7.71644139289856</v>
+        <v>7.708441019058228</v>
       </c>
       <c r="B84" t="n">
-        <v>8.791677e-07</v>
+        <v>0.0001129017</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>7.80544638633728</v>
+        <v>7.808446645736694</v>
       </c>
       <c r="B85" t="n">
-        <v>8.796359e-07</v>
+        <v>0.0001129142</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>7.921453237533569</v>
+        <v>7.910452365875244</v>
       </c>
       <c r="B86" t="n">
-        <v>8.799426e-07</v>
+        <v>0.000112859</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>8.030459403991699</v>
+        <v>8.022458791732788</v>
       </c>
       <c r="B87" t="n">
-        <v>8.805287e-07</v>
+        <v>0.0001128295</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>8.137465476989746</v>
+        <v>8.121464490890503</v>
       </c>
       <c r="B88" t="n">
-        <v>8.791447e-07</v>
+        <v>0.0001127828</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>8.213469743728638</v>
+        <v>8.228470802307129</v>
       </c>
       <c r="B89" t="n">
-        <v>8.80874e-07</v>
+        <v>0.000112747</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>8.316475629806519</v>
+        <v>8.333476543426514</v>
       </c>
       <c r="B90" t="n">
-        <v>8.812611e-07</v>
+        <v>0.000112673</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>8.406481027603149</v>
+        <v>8.422481775283813</v>
       </c>
       <c r="B91" t="n">
-        <v>8.795718e-07</v>
+        <v>0.0001127293</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>8.504486560821533</v>
+        <v>8.520487308502197</v>
       </c>
       <c r="B92" t="n">
-        <v>8.817187e-07</v>
+        <v>0.0001127266</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>8.607492446899414</v>
+        <v>8.601491928100586</v>
       </c>
       <c r="B93" t="n">
-        <v>8.823829e-07</v>
+        <v>0.0001125992</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>8.710498332977295</v>
+        <v>8.702497720718384</v>
       </c>
       <c r="B94" t="n">
-        <v>8.827781e-07</v>
+        <v>0.0001126443</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>8.800503492355347</v>
+        <v>8.814504146575928</v>
       </c>
       <c r="B95" t="n">
-        <v>8.828352e-07</v>
+        <v>0.0001125769</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>8.903509378433228</v>
+        <v>8.905509233474731</v>
       </c>
       <c r="B96" t="n">
-        <v>8.825869e-07</v>
+        <v>0.0001125462</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>9.024516105651855</v>
+        <v>9.006515026092529</v>
       </c>
       <c r="B97" t="n">
-        <v>8.834787e-07</v>
+        <v>0.0001125543</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>9.124521970748901</v>
+        <v>9.112521171569824</v>
       </c>
       <c r="B98" t="n">
-        <v>8.84062e-07</v>
+        <v>0.0001124828</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>9.223527431488037</v>
+        <v>9.209526777267456</v>
       </c>
       <c r="B99" t="n">
-        <v>8.840963e-07</v>
+        <v>0.0001125439</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>9.319533109664917</v>
+        <v>9.30753231048584</v>
       </c>
       <c r="B100" t="n">
-        <v>8.846384e-07</v>
+        <v>0.0001124802</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>9.421538829803467</v>
+        <v>9.413538455963135</v>
       </c>
       <c r="B101" t="n">
-        <v>8.846696e-07</v>
+        <v>0.0001125062</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>9.537545680999756</v>
+        <v>9.501543283462524</v>
       </c>
       <c r="B102" t="n">
-        <v>8.852587e-07</v>
+        <v>0.0001125022</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>9.637551307678223</v>
+        <v>9.605549573898315</v>
       </c>
       <c r="B103" t="n">
-        <v>8.853178e-07</v>
+        <v>0.0001124761</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>9.705555200576782</v>
+        <v>9.712555408477783</v>
       </c>
       <c r="B104" t="n">
-        <v>8.858739e-07</v>
+        <v>0.0001124438</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>9.81356143951416</v>
+        <v>9.811561107635498</v>
       </c>
       <c r="B105" t="n">
-        <v>8.858579e-07</v>
+        <v>0.0001123307</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>9.911566972732544</v>
+        <v>9.907566785812378</v>
       </c>
       <c r="B106" t="n">
-        <v>8.85785e-07</v>
+        <v>0.0001122745</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>10.0015721321106</v>
+        <v>10.01357269287109</v>
       </c>
       <c r="B107" t="n">
-        <v>8.864649000000001e-07</v>
+        <v>0.0001122861</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>10.1045777797699</v>
+        <v>10.10357809066772</v>
       </c>
       <c r="B108" t="n">
-        <v>8.864479e-07</v>
+        <v>0.0001122531</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>10.20758390426636</v>
+        <v>10.20158362388611</v>
       </c>
       <c r="B109" t="n">
-        <v>8.869147e-07</v>
+        <v>0.0001123369</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>10.30558967590332</v>
+        <v>10.30058932304382</v>
       </c>
       <c r="B110" t="n">
-        <v>8.853912e-07</v>
+        <v>0.0001122672</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>10.41359567642212</v>
+        <v>10.40659523010254</v>
       </c>
       <c r="B111" t="n">
-        <v>8.871983e-07</v>
+        <v>0.0001122894</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>10.50960111618042</v>
+        <v>10.50560092926025</v>
       </c>
       <c r="B112" t="n">
-        <v>8.874669e-07</v>
+        <v>0.000112198</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>10.60860681533813</v>
+        <v>10.61960744857788</v>
       </c>
       <c r="B113" t="n">
-        <v>8.872775e-07</v>
+        <v>0.000112149</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>10.71461272239685</v>
+        <v>10.70361232757568</v>
       </c>
       <c r="B114" t="n">
-        <v>8.871515e-07</v>
+        <v>0.0001121274</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>10.8096182346344</v>
+        <v>10.80561804771423</v>
       </c>
       <c r="B115" t="n">
-        <v>8.877781e-07</v>
+        <v>0.0001121411</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>10.90862393379211</v>
+        <v>10.91262412071228</v>
       </c>
       <c r="B116" t="n">
-        <v>8.879477e-07</v>
+        <v>0.0001121856</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>11.01463007926941</v>
+        <v>11.00562953948975</v>
       </c>
       <c r="B117" t="n">
-        <v>8.874013e-07</v>
+        <v>0.0001121565</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>11.10963535308838</v>
+        <v>11.10563516616821</v>
       </c>
       <c r="B118" t="n">
-        <v>8.880199e-07</v>
+        <v>0.0001120843</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>11.20864105224609</v>
+        <v>11.21464133262634</v>
       </c>
       <c r="B119" t="n">
-        <v>8.865704e-07</v>
+        <v>0.0001120092</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>11.31064677238464</v>
+        <v>11.30364656448364</v>
       </c>
       <c r="B120" t="n">
-        <v>8.876562e-07</v>
+        <v>0.0001121159</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>11.41665315628052</v>
+        <v>11.40165209770203</v>
       </c>
       <c r="B121" t="n">
-        <v>8.88038e-07</v>
+        <v>0.0001121172</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>11.52265906333923</v>
+        <v>11.50465822219849</v>
       </c>
       <c r="B122" t="n">
-        <v>8.864113e-07</v>
+        <v>0.0001120156</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>11.61966466903687</v>
+        <v>11.60766386985779</v>
       </c>
       <c r="B123" t="n">
-        <v>8.865742e-07</v>
+        <v>0.0001120711</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>11.70866990089417</v>
+        <v>11.7066695690155</v>
       </c>
       <c r="B124" t="n">
-        <v>8.872785e-07</v>
+        <v>0.000112004</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>11.80867552757263</v>
+        <v>11.8146755695343</v>
       </c>
       <c r="B125" t="n">
-        <v>8.87232e-07</v>
+        <v>0.0001119523</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>11.9036808013916</v>
+        <v>11.90968132019043</v>
       </c>
       <c r="B126" t="n">
-        <v>8.862377e-07</v>
+        <v>0.0001120057</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>12.00368666648865</v>
+        <v>12.0096869468689</v>
       </c>
       <c r="B127" t="n">
-        <v>8.875012e-07</v>
+        <v>0.0001120599</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>12.10069227218628</v>
+        <v>12.11169266700745</v>
       </c>
       <c r="B128" t="n">
-        <v>8.867253e-07</v>
+        <v>0.0001119397</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>12.20969843864441</v>
+        <v>12.22469925880432</v>
       </c>
       <c r="B129" t="n">
-        <v>8.881042e-07</v>
+        <v>0.0001119523</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>12.31670451164246</v>
+        <v>12.32870531082153</v>
       </c>
       <c r="B130" t="n">
-        <v>8.865917e-07</v>
+        <v>0.0001119289</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>12.42471075057983</v>
+        <v>12.40970969200134</v>
       </c>
       <c r="B131" t="n">
-        <v>8.879616000000001e-07</v>
+        <v>0.0001120124</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>12.52771663665771</v>
+        <v>12.52371621131897</v>
       </c>
       <c r="B132" t="n">
-        <v>8.881763e-07</v>
+        <v>0.0001119822</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>12.63472294807434</v>
+        <v>12.6207218170166</v>
       </c>
       <c r="B133" t="n">
-        <v>8.884383e-07</v>
+        <v>0.0001120185</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>12.7267279624939</v>
+        <v>12.73372840881348</v>
       </c>
       <c r="B134" t="n">
-        <v>8.881456e-07</v>
+        <v>0.0001119106</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>12.80673265457153</v>
+        <v>12.83773422241211</v>
       </c>
       <c r="B135" t="n">
-        <v>8.872653e-07</v>
+        <v>0.0001119064</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>12.90873837471008</v>
+        <v>12.9087381362915</v>
       </c>
       <c r="B136" t="n">
-        <v>8.88258e-07</v>
+        <v>0.0001119134</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>13.0077440738678</v>
+        <v>13.01474452018738</v>
       </c>
       <c r="B137" t="n">
-        <v>8.880014e-07</v>
+        <v>0.0001119913</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>13.10974979400635</v>
+        <v>13.1037495136261</v>
       </c>
       <c r="B138" t="n">
-        <v>8.880769e-07</v>
+        <v>0.0001120204</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>13.21075558662415</v>
+        <v>13.20375514030457</v>
       </c>
       <c r="B139" t="n">
-        <v>8.880586e-07</v>
+        <v>0.0001119335</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>13.30976128578186</v>
+        <v>13.30876135826111</v>
       </c>
       <c r="B140" t="n">
-        <v>8.879123e-07</v>
+        <v>0.0001119694</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>13.40976691246033</v>
+        <v>13.40676689147949</v>
       </c>
       <c r="B141" t="n">
-        <v>8.877565e-07</v>
+        <v>0.0001120118</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>13.52177333831787</v>
+        <v>13.50777268409729</v>
       </c>
       <c r="B142" t="n">
-        <v>8.874257e-07</v>
+        <v>0.0001120306</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>13.6287796497345</v>
+        <v>13.61777877807617</v>
       </c>
       <c r="B143" t="n">
-        <v>8.870002e-07</v>
+        <v>0.0001119769</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>13.7127845287323</v>
+        <v>13.70278358459473</v>
       </c>
       <c r="B144" t="n">
-        <v>8.869141e-07</v>
+        <v>0.0001120663</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>13.81279015541077</v>
+        <v>13.80178928375244</v>
       </c>
       <c r="B145" t="n">
-        <v>8.870189e-07</v>
+        <v>0.0001120817</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>13.90679550170898</v>
+        <v>13.90179491043091</v>
       </c>
       <c r="B146" t="n">
-        <v>8.862402e-07</v>
+        <v>0.0001119781</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>14.01380157470703</v>
+        <v>14.00880122184753</v>
       </c>
       <c r="B147" t="n">
-        <v>8.864998e-07</v>
+        <v>0.0001120513</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>14.1068069934845</v>
+        <v>14.10080647468567</v>
       </c>
       <c r="B148" t="n">
-        <v>8.863426e-07</v>
+        <v>0.0001120438</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>14.20681285858154</v>
+        <v>14.20481252670288</v>
       </c>
       <c r="B149" t="n">
-        <v>8.85906e-07</v>
+        <v>0.0001119922</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>14.30981874465942</v>
+        <v>14.30981850624084</v>
       </c>
       <c r="B150" t="n">
-        <v>8.856763000000001e-07</v>
+        <v>0.0001119777</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>14.42182517051697</v>
+        <v>14.40082383155823</v>
       </c>
       <c r="B151" t="n">
-        <v>8.847678e-07</v>
+        <v>0.0001120866</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>14.52483081817627</v>
+        <v>14.50482964515686</v>
       </c>
       <c r="B152" t="n">
-        <v>8.845484e-07</v>
+        <v>0.0001120479</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>14.61783623695374</v>
+        <v>14.60983562469482</v>
       </c>
       <c r="B153" t="n">
-        <v>8.832927e-07</v>
+        <v>0.0001121106</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>14.70784139633179</v>
+        <v>14.70084095001221</v>
       </c>
       <c r="B154" t="n">
-        <v>8.841571e-07</v>
+        <v>0.000112061</v>
       </c>
     </row>
     <row r="155">
@@ -1665,1095 +1665,1095 @@
         <v>14.80984711647034</v>
       </c>
       <c r="B155" t="n">
-        <v>8.831724e-07</v>
+        <v>0.0001120176</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>14.91385293006897</v>
+        <v>14.91985321044922</v>
       </c>
       <c r="B156" t="n">
-        <v>8.827893e-07</v>
+        <v>0.0001120423</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>15.00685834884644</v>
+        <v>15.02685952186584</v>
       </c>
       <c r="B157" t="n">
-        <v>8.829456e-07</v>
+        <v>0.0001120531</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>15.10686421394348</v>
+        <v>15.10786414146423</v>
       </c>
       <c r="B158" t="n">
-        <v>8.823254e-07</v>
+        <v>0.0001120311</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>15.21487045288086</v>
+        <v>15.20886993408203</v>
       </c>
       <c r="B159" t="n">
-        <v>8.818793e-07</v>
+        <v>0.0001121394</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>15.30287551879883</v>
+        <v>15.303875207901</v>
       </c>
       <c r="B160" t="n">
-        <v>8.812293e-07</v>
+        <v>0.0001120875</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>15.40088105201721</v>
+        <v>15.40588092803955</v>
       </c>
       <c r="B161" t="n">
-        <v>8.80395e-07</v>
+        <v>0.0001121188</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>15.50988698005676</v>
+        <v>15.50988721847534</v>
       </c>
       <c r="B162" t="n">
-        <v>8.816153e-07</v>
+        <v>0.0001120563</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>15.61789345741272</v>
+        <v>15.60189247131348</v>
       </c>
       <c r="B163" t="n">
-        <v>8.801567999999999e-07</v>
+        <v>0.0001120662</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>15.72489953041077</v>
+        <v>15.70089793205261</v>
       </c>
       <c r="B164" t="n">
-        <v>8.814601000000001e-07</v>
+        <v>0.0001121155</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>15.81290459632874</v>
+        <v>15.80590415000916</v>
       </c>
       <c r="B165" t="n">
-        <v>8.816074999999999e-07</v>
+        <v>0.0001120942</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>15.90790987014771</v>
+        <v>15.90690994262695</v>
       </c>
       <c r="B166" t="n">
-        <v>8.81836e-07</v>
+        <v>0.0001122244</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>16.00891590118408</v>
+        <v>16.01691627502441</v>
       </c>
       <c r="B167" t="n">
-        <v>8.823056e-07</v>
+        <v>0.0001122235</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>16.11592197418213</v>
+        <v>16.10892152786255</v>
       </c>
       <c r="B168" t="n">
-        <v>8.821531e-07</v>
+        <v>0.0001122618</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>16.20692729949951</v>
+        <v>16.21292734146118</v>
       </c>
       <c r="B169" t="n">
-        <v>8.822449e-07</v>
+        <v>0.0001121235</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>16.31593322753906</v>
+        <v>16.31893348693848</v>
       </c>
       <c r="B170" t="n">
-        <v>8.825441999999999e-07</v>
+        <v>0.0001122495</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>16.41693902015686</v>
+        <v>16.40993857383728</v>
       </c>
       <c r="B171" t="n">
-        <v>8.815368e-07</v>
+        <v>0.0001122206</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>16.50794434547424</v>
+        <v>16.51294445991516</v>
       </c>
       <c r="B172" t="n">
-        <v>8.831822e-07</v>
+        <v>0.0001123254</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>16.61095023155212</v>
+        <v>16.62195062637329</v>
       </c>
       <c r="B173" t="n">
-        <v>8.831375e-07</v>
+        <v>0.0001123398</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>16.71595621109009</v>
+        <v>16.73195695877075</v>
       </c>
       <c r="B174" t="n">
-        <v>8.837687e-07</v>
+        <v>0.0001123383</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>16.80696153640747</v>
+        <v>16.84596347808838</v>
       </c>
       <c r="B175" t="n">
-        <v>8.827765e-07</v>
+        <v>0.0001122924</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>16.90496706962585</v>
+        <v>16.94696927070618</v>
       </c>
       <c r="B176" t="n">
-        <v>8.837799000000001e-07</v>
+        <v>0.000112303</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>17.01397299766541</v>
+        <v>17.0189733505249</v>
       </c>
       <c r="B177" t="n">
-        <v>8.835398000000001e-07</v>
+        <v>0.0001123251</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>17.1079785823822</v>
+        <v>17.13798046112061</v>
       </c>
       <c r="B178" t="n">
-        <v>8.842673e-07</v>
+        <v>0.0001123397</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>17.20798420906067</v>
+        <v>17.2459864616394</v>
       </c>
       <c r="B179" t="n">
-        <v>8.844027e-07</v>
+        <v>0.000112383</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>17.31399059295654</v>
+        <v>17.31799054145813</v>
       </c>
       <c r="B180" t="n">
-        <v>8.835059e-07</v>
+        <v>0.0001123139</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>17.40899562835693</v>
+        <v>17.42799687385559</v>
       </c>
       <c r="B181" t="n">
-        <v>8.845282e-07</v>
+        <v>0.0001123309</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>17.5000011920929</v>
+        <v>17.50000095367432</v>
       </c>
       <c r="B182" t="n">
-        <v>8.837814e-07</v>
+        <v>0.0001124151</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>17.60600709915161</v>
+        <v>17.60800719261169</v>
       </c>
       <c r="B183" t="n">
-        <v>8.83623e-07</v>
+        <v>0.0001123403</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>17.70901298522949</v>
+        <v>17.70001244544983</v>
       </c>
       <c r="B184" t="n">
-        <v>8.834764e-07</v>
+        <v>0.0001123806</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>17.80901861190796</v>
+        <v>17.80801868438721</v>
       </c>
       <c r="B185" t="n">
-        <v>8.850343e-07</v>
+        <v>0.0001124094</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>17.91202473640442</v>
+        <v>17.91502475738525</v>
       </c>
       <c r="B186" t="n">
-        <v>8.842301e-07</v>
+        <v>0.0001125145</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>18.0100302696228</v>
+        <v>18.02603101730347</v>
       </c>
       <c r="B187" t="n">
-        <v>8.852757e-07</v>
+        <v>0.0001124792</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>18.10203552246094</v>
+        <v>18.11803650856018</v>
       </c>
       <c r="B188" t="n">
-        <v>8.853576e-07</v>
+        <v>0.0001124711</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>18.21504187583923</v>
+        <v>18.20004105567932</v>
       </c>
       <c r="B189" t="n">
-        <v>8.840526e-07</v>
+        <v>0.0001125367</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>18.30604696273804</v>
+        <v>18.31604766845703</v>
       </c>
       <c r="B190" t="n">
-        <v>8.854644e-07</v>
+        <v>0.0001124652</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>18.40605306625366</v>
+        <v>18.42005348205566</v>
       </c>
       <c r="B191" t="n">
-        <v>8.855206999999999e-07</v>
+        <v>0.0001125028</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>18.51505899429321</v>
+        <v>18.50205826759338</v>
       </c>
       <c r="B192" t="n">
-        <v>8.853145e-07</v>
+        <v>0.0001125761</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>18.60406398773193</v>
+        <v>18.62606525421143</v>
       </c>
       <c r="B193" t="n">
-        <v>8.845508e-07</v>
+        <v>0.0001126113</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>18.70807003974915</v>
+        <v>18.70606994628906</v>
       </c>
       <c r="B194" t="n">
-        <v>8.851165e-07</v>
+        <v>0.0001126231</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>18.80307579040527</v>
+        <v>18.8100757598877</v>
       </c>
       <c r="B195" t="n">
-        <v>8.847007e-07</v>
+        <v>0.0001125263</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>18.90508151054382</v>
+        <v>18.90308117866516</v>
       </c>
       <c r="B196" t="n">
-        <v>8.84588e-07</v>
+        <v>0.0001125108</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>19.00308704376221</v>
+        <v>19.01708769798279</v>
       </c>
       <c r="B197" t="n">
-        <v>8.822714e-07</v>
+        <v>0.0001125064</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>19.11409330368042</v>
+        <v>19.10909295082092</v>
       </c>
       <c r="B198" t="n">
-        <v>8.827758e-07</v>
+        <v>0.0001125007</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>19.2050986289978</v>
+        <v>19.20309829711914</v>
       </c>
       <c r="B199" t="n">
-        <v>8.833325e-07</v>
+        <v>0.0001125694</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>19.30510425567627</v>
+        <v>19.30210399627686</v>
       </c>
       <c r="B200" t="n">
-        <v>8.827022e-07</v>
+        <v>0.0001125604</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>19.41511058807373</v>
+        <v>19.41011023521423</v>
       </c>
       <c r="B201" t="n">
-        <v>8.806564e-07</v>
+        <v>0.0001125681</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>19.5031156539917</v>
+        <v>19.50111532211304</v>
       </c>
       <c r="B202" t="n">
-        <v>8.801914e-07</v>
+        <v>0.0001125469</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>19.60712146759033</v>
+        <v>19.60112118721008</v>
       </c>
       <c r="B203" t="n">
-        <v>8.809630000000001e-07</v>
+        <v>0.0001125116</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>19.71512770652771</v>
+        <v>19.71412754058838</v>
       </c>
       <c r="B204" t="n">
-        <v>8.798642e-07</v>
+        <v>0.0001124808</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>19.80313277244568</v>
+        <v>19.82413387298584</v>
       </c>
       <c r="B205" t="n">
-        <v>8.784853e-07</v>
+        <v>0.0001124802</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>19.90513849258423</v>
+        <v>19.92313957214355</v>
       </c>
       <c r="B206" t="n">
-        <v>8.798748e-07</v>
+        <v>0.0001124088</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>20.01514482498169</v>
+        <v>20.01214456558228</v>
       </c>
       <c r="B207" t="n">
-        <v>8.779883e-07</v>
+        <v>0.0001124082</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>20.10614991188049</v>
+        <v>20.10514998435974</v>
       </c>
       <c r="B208" t="n">
-        <v>8.784874e-07</v>
+        <v>0.0001124605</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>20.20315551757812</v>
+        <v>20.21815657615662</v>
       </c>
       <c r="B209" t="n">
-        <v>8.775285999999999e-07</v>
+        <v>0.000112491</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>20.30416131019592</v>
+        <v>20.30016112327576</v>
       </c>
       <c r="B210" t="n">
-        <v>8.789064e-07</v>
+        <v>0.0001124792</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>20.40916752815247</v>
+        <v>20.4171679019928</v>
       </c>
       <c r="B211" t="n">
-        <v>8.783139e-07</v>
+        <v>0.0001124814</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>20.50017261505127</v>
+        <v>20.52317380905151</v>
       </c>
       <c r="B212" t="n">
-        <v>8.774571e-07</v>
+        <v>0.0001124769</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>20.6071789264679</v>
+        <v>20.61517930030823</v>
       </c>
       <c r="B213" t="n">
-        <v>8.786587e-07</v>
+        <v>0.0001124892</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>20.71118474006653</v>
+        <v>20.71818518638611</v>
       </c>
       <c r="B214" t="n">
-        <v>8.772299e-07</v>
+        <v>0.0001125688</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>20.80218982696533</v>
+        <v>20.82319092750549</v>
       </c>
       <c r="B215" t="n">
-        <v>8.787085e-07</v>
+        <v>0.0001126013</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>20.90319585800171</v>
+        <v>20.91319632530212</v>
       </c>
       <c r="B216" t="n">
-        <v>8.768451e-07</v>
+        <v>0.0001126049</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>21.00820183753967</v>
+        <v>21.0032012462616</v>
       </c>
       <c r="B217" t="n">
-        <v>8.783875e-07</v>
+        <v>0.0001126241</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>21.10820746421814</v>
+        <v>21.10520720481873</v>
       </c>
       <c r="B218" t="n">
-        <v>8.771459e-07</v>
+        <v>0.0001126381</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>21.21721363067627</v>
+        <v>21.21021294593811</v>
       </c>
       <c r="B219" t="n">
-        <v>8.779463e-07</v>
+        <v>0.0001126658</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>21.30721879005432</v>
+        <v>21.30221843719482</v>
       </c>
       <c r="B220" t="n">
-        <v>8.788859e-07</v>
+        <v>0.0001126437</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>21.40422439575195</v>
+        <v>21.40322422981262</v>
       </c>
       <c r="B221" t="n">
-        <v>8.783825e-07</v>
+        <v>0.0001126517</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>21.50423002243042</v>
+        <v>21.50923037528992</v>
       </c>
       <c r="B222" t="n">
-        <v>8.797851e-07</v>
+        <v>0.0001126047</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>21.60923600196838</v>
+        <v>21.6022355556488</v>
       </c>
       <c r="B223" t="n">
-        <v>8.788696e-07</v>
+        <v>0.0001126626</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>21.70024132728577</v>
+        <v>21.70624136924744</v>
       </c>
       <c r="B224" t="n">
-        <v>8.789128e-07</v>
+        <v>0.000112579</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>21.80724740028381</v>
+        <v>21.81324768066406</v>
       </c>
       <c r="B225" t="n">
-        <v>8.806836e-07</v>
+        <v>0.0001125569</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>21.91025328636169</v>
+        <v>21.90125274658203</v>
       </c>
       <c r="B226" t="n">
-        <v>8.809062000000001e-07</v>
+        <v>0.0001126132</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>22.00125861167908</v>
+        <v>22.00425887107849</v>
       </c>
       <c r="B227" t="n">
-        <v>8.799971e-07</v>
+        <v>0.0001126561</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>22.1152651309967</v>
+        <v>22.11126470565796</v>
       </c>
       <c r="B228" t="n">
-        <v>8.815588e-07</v>
+        <v>0.0001126945</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>22.21027040481567</v>
+        <v>22.20326972007751</v>
       </c>
       <c r="B229" t="n">
-        <v>8.821636e-07</v>
+        <v>0.000112732</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>22.30027556419373</v>
+        <v>22.3172767162323</v>
       </c>
       <c r="B230" t="n">
-        <v>8.813489e-07</v>
+        <v>0.0001127206</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>22.40428137779236</v>
+        <v>22.40928173065186</v>
       </c>
       <c r="B231" t="n">
-        <v>8.832325e-07</v>
+        <v>0.0001127293</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>22.5092875957489</v>
+        <v>22.50628733634949</v>
       </c>
       <c r="B232" t="n">
-        <v>8.834425e-07</v>
+        <v>0.0001127159</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>22.60829329490662</v>
+        <v>22.62029385566711</v>
       </c>
       <c r="B233" t="n">
-        <v>8.841443999999999e-07</v>
+        <v>0.0001127702</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>22.71029901504517</v>
+        <v>22.706298828125</v>
       </c>
       <c r="B234" t="n">
-        <v>8.845359e-07</v>
+        <v>0.0001128662</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>22.82030534744263</v>
+        <v>22.80630445480347</v>
       </c>
       <c r="B235" t="n">
-        <v>8.831331e-07</v>
+        <v>0.0001128936</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>22.92431139945984</v>
+        <v>22.91531085968018</v>
       </c>
       <c r="B236" t="n">
-        <v>8.853314e-07</v>
+        <v>0.0001129059</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>23.02231693267822</v>
+        <v>23.00531578063965</v>
       </c>
       <c r="B237" t="n">
-        <v>8.855138e-07</v>
+        <v>0.0001129094</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>23.10132122039795</v>
+        <v>23.11432218551636</v>
       </c>
       <c r="B238" t="n">
-        <v>8.860287e-07</v>
+        <v>0.0001130002</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>23.20632743835449</v>
+        <v>23.21832799911499</v>
       </c>
       <c r="B239" t="n">
-        <v>8.85069e-07</v>
+        <v>0.0001130179</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>23.31233334541321</v>
+        <v>23.30733299255371</v>
       </c>
       <c r="B240" t="n">
-        <v>8.859203e-07</v>
+        <v>0.0001130582</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>23.41633939743042</v>
+        <v>23.40333867073059</v>
       </c>
       <c r="B241" t="n">
-        <v>8.871356e-07</v>
+        <v>0.0001130966</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>23.52234554290771</v>
+        <v>23.50234413146973</v>
       </c>
       <c r="B242" t="n">
-        <v>8.87238e-07</v>
+        <v>0.0001130675</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>23.62635135650635</v>
+        <v>23.60635018348694</v>
       </c>
       <c r="B243" t="n">
-        <v>8.873771e-07</v>
+        <v>0.0001131082</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>23.73235750198364</v>
+        <v>23.70635581016541</v>
       </c>
       <c r="B244" t="n">
-        <v>8.880421000000001e-07</v>
+        <v>0.0001131635</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>23.83236312866211</v>
+        <v>23.81536221504211</v>
       </c>
       <c r="B245" t="n">
-        <v>8.881836e-07</v>
+        <v>0.0001131848</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>23.91836810112</v>
+        <v>23.90436720848083</v>
       </c>
       <c r="B246" t="n">
-        <v>8.883642e-07</v>
+        <v>0.0001131832</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>24.00737309455872</v>
+        <v>24.01837372779846</v>
       </c>
       <c r="B247" t="n">
-        <v>8.880949e-07</v>
+        <v>0.0001132387</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>24.1033787727356</v>
+        <v>24.12437987327576</v>
       </c>
       <c r="B248" t="n">
-        <v>8.873219e-07</v>
+        <v>0.0001132114</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>24.20338439941406</v>
+        <v>24.21838545799255</v>
       </c>
       <c r="B249" t="n">
-        <v>8.878328e-07</v>
+        <v>0.0001132497</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>24.30639028549194</v>
+        <v>24.32539129257202</v>
       </c>
       <c r="B250" t="n">
-        <v>8.891578e-07</v>
+        <v>0.0001132997</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>24.40839600563049</v>
+        <v>24.41139626502991</v>
       </c>
       <c r="B251" t="n">
-        <v>8.893365e-07</v>
+        <v>0.0001133206</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>24.50940203666687</v>
+        <v>24.51840257644653</v>
       </c>
       <c r="B252" t="n">
-        <v>8.882024e-07</v>
+        <v>0.0001133066</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>24.60940766334534</v>
+        <v>24.63140892982483</v>
       </c>
       <c r="B253" t="n">
-        <v>8.881398e-07</v>
+        <v>0.0001133518</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>24.7074134349823</v>
+        <v>24.71341347694397</v>
       </c>
       <c r="B254" t="n">
-        <v>8.899842e-07</v>
+        <v>0.0001133165</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>24.81341934204102</v>
+        <v>24.80741882324219</v>
       </c>
       <c r="B255" t="n">
-        <v>8.901076e-07</v>
+        <v>0.0001133642</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>24.90342450141907</v>
+        <v>24.9064245223999</v>
       </c>
       <c r="B256" t="n">
-        <v>8.894862e-07</v>
+        <v>0.0001133901</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>25.00042986869812</v>
+        <v>25.01043057441711</v>
       </c>
       <c r="B257" t="n">
-        <v>8.884392e-07</v>
+        <v>0.0001134138</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>25.10043573379517</v>
+        <v>25.11943674087524</v>
       </c>
       <c r="B258" t="n">
-        <v>8.893707e-07</v>
+        <v>0.0001133713</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>25.20444178581238</v>
+        <v>25.22544264793396</v>
       </c>
       <c r="B259" t="n">
-        <v>8.903763e-07</v>
+        <v>0.0001133895</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>25.30844759941101</v>
+        <v>25.31944823265076</v>
       </c>
       <c r="B260" t="n">
-        <v>8.909458e-07</v>
+        <v>0.0001134172</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>25.41545367240906</v>
+        <v>25.40945315361023</v>
       </c>
       <c r="B261" t="n">
-        <v>8.904428e-07</v>
+        <v>0.0001134592</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>25.50345897674561</v>
+        <v>25.50545883178711</v>
       </c>
       <c r="B262" t="n">
-        <v>8.895668e-07</v>
+        <v>0.0001134678</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>25.62246561050415</v>
+        <v>25.61946535110474</v>
       </c>
       <c r="B263" t="n">
-        <v>8.907283e-07</v>
+        <v>0.000113479</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>25.7414722442627</v>
+        <v>25.70647025108337</v>
       </c>
       <c r="B264" t="n">
-        <v>8.907834e-07</v>
+        <v>0.0001135245</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>25.8624792098999</v>
+        <v>25.80747604370117</v>
       </c>
       <c r="B265" t="n">
-        <v>8.902346e-07</v>
+        <v>0.0001135479</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>25.96748518943787</v>
+        <v>25.91248226165771</v>
       </c>
       <c r="B266" t="n">
-        <v>8.911698e-07</v>
+        <v>0.0001135721</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>26.07549142837524</v>
+        <v>26.0104877948761</v>
       </c>
       <c r="B267" t="n">
-        <v>8.90871e-07</v>
+        <v>0.0001135895</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>26.16949701309204</v>
+        <v>26.1014928817749</v>
       </c>
       <c r="B268" t="n">
-        <v>8.907264000000001e-07</v>
+        <v>0.0001136736</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>26.23950099945068</v>
+        <v>26.21449947357178</v>
       </c>
       <c r="B269" t="n">
-        <v>8.912767e-07</v>
+        <v>0.0001136806</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>26.34350681304932</v>
+        <v>26.3035044670105</v>
       </c>
       <c r="B270" t="n">
-        <v>8.915152e-07</v>
+        <v>0.0001137212</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>26.44051241874695</v>
+        <v>26.40951061248779</v>
       </c>
       <c r="B271" t="n">
-        <v>8.914312e-07</v>
+        <v>0.0001136919</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>26.51751685142517</v>
+        <v>26.51251649856567</v>
       </c>
       <c r="B272" t="n">
-        <v>8.905358e-07</v>
+        <v>0.0001136939</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>26.62052249908447</v>
+        <v>26.60752177238464</v>
       </c>
       <c r="B273" t="n">
-        <v>8.906597e-07</v>
+        <v>0.0001136547</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>26.70952796936035</v>
+        <v>26.70752763748169</v>
       </c>
       <c r="B274" t="n">
-        <v>8.909723e-07</v>
+        <v>0.0001136428</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>26.80553317070007</v>
+        <v>26.81253361701965</v>
       </c>
       <c r="B275" t="n">
-        <v>8.915561e-07</v>
+        <v>0.000113699</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>26.90453886985779</v>
+        <v>26.91053915023804</v>
       </c>
       <c r="B276" t="n">
-        <v>8.91751e-07</v>
+        <v>0.0001136696</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>27.008544921875</v>
+        <v>27.00154447555542</v>
       </c>
       <c r="B277" t="n">
-        <v>8.918981e-07</v>
+        <v>0.0001136909</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>27.10755062103271</v>
+        <v>27.10755038261414</v>
       </c>
       <c r="B278" t="n">
-        <v>8.918696e-07</v>
+        <v>0.0001136706</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>27.20855641365051</v>
+        <v>27.21055626869202</v>
       </c>
       <c r="B279" t="n">
-        <v>8.916646e-07</v>
+        <v>0.0001136921</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>27.3135621547699</v>
+        <v>27.3015615940094</v>
       </c>
       <c r="B280" t="n">
-        <v>8.917311e-07</v>
+        <v>0.0001137096</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>27.40256762504578</v>
+        <v>27.40756750106812</v>
       </c>
       <c r="B281" t="n">
-        <v>8.918149e-07</v>
+        <v>0.0001137454</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>27.50057291984558</v>
+        <v>27.50957322120667</v>
       </c>
       <c r="B282" t="n">
-        <v>8.908216e-07</v>
+        <v>0.0001137725</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>27.60557913780212</v>
+        <v>27.62958025932312</v>
       </c>
       <c r="B283" t="n">
-        <v>8.912252e-07</v>
+        <v>0.0001137185</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>27.70458483695984</v>
+        <v>27.71358513832092</v>
       </c>
       <c r="B284" t="n">
-        <v>8.915836e-07</v>
+        <v>0.0001137237</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>27.8145911693573</v>
+        <v>27.80659031867981</v>
       </c>
       <c r="B285" t="n">
-        <v>8.906169e-07</v>
+        <v>0.0001137797</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>27.90459609031677</v>
+        <v>27.90759611129761</v>
       </c>
       <c r="B286" t="n">
-        <v>8.913436e-07</v>
+        <v>0.0001138035</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>28.0016016960144</v>
+        <v>28.01560235023499</v>
       </c>
       <c r="B287" t="n">
-        <v>8.904111e-07</v>
+        <v>0.0001137941</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>28.10060739517212</v>
+        <v>28.10660743713379</v>
       </c>
       <c r="B288" t="n">
-        <v>8.900511e-07</v>
+        <v>0.0001137464</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>28.20161318778992</v>
+        <v>28.210613489151</v>
       </c>
       <c r="B289" t="n">
-        <v>8.900871e-07</v>
+        <v>0.0001137774</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>28.30861902236938</v>
+        <v>28.3166196346283</v>
       </c>
       <c r="B290" t="n">
-        <v>8.896032e-07</v>
+        <v>0.0001137367</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>28.40162467956543</v>
+        <v>28.40862488746643</v>
       </c>
       <c r="B291" t="n">
-        <v>8.907324e-07</v>
+        <v>0.0001137893</v>
       </c>
     </row>
     <row r="292">
@@ -2761,79 +2761,79 @@
         <v>28.50563049316406</v>
       </c>
       <c r="B292" t="n">
-        <v>8.884649e-07</v>
+        <v>0.0001137203</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>28.60563611984253</v>
+        <v>28.61463665962219</v>
       </c>
       <c r="B293" t="n">
-        <v>8.906372e-07</v>
+        <v>0.0001137797</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>28.71564245223999</v>
+        <v>28.70464181900024</v>
       </c>
       <c r="B294" t="n">
-        <v>8.894681e-07</v>
+        <v>0.0001137898</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>28.80364751815796</v>
+        <v>28.80964779853821</v>
       </c>
       <c r="B295" t="n">
-        <v>8.894363e-07</v>
+        <v>0.0001138289</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>28.90065312385559</v>
+        <v>28.9156539440155</v>
       </c>
       <c r="B296" t="n">
-        <v>8.895304e-07</v>
+        <v>0.0001138909</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>29.00065875053406</v>
+        <v>29.00665903091431</v>
       </c>
       <c r="B297" t="n">
-        <v>8.921149000000001e-07</v>
+        <v>0.0001138834</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>29.10466456413269</v>
+        <v>29.12866616249084</v>
       </c>
       <c r="B298" t="n">
-        <v>8.864803999999999e-07</v>
+        <v>0.0001138971</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>29.20867085456848</v>
+        <v>29.2086706161499</v>
       </c>
       <c r="B299" t="n">
-        <v>8.883898e-07</v>
+        <v>0.0001139201</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>29.31567668914795</v>
+        <v>29.31067633628845</v>
       </c>
       <c r="B300" t="n">
-        <v>8.885611e-07</v>
+        <v>0.0001138817</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>29.4036819934845</v>
+        <v>29.40068173408508</v>
       </c>
       <c r="B301" t="n">
-        <v>8.856413e-07</v>
+        <v>0.0001138861</v>
       </c>
     </row>
     <row r="302">
@@ -2841,423 +2841,423 @@
         <v>29.50368762016296</v>
       </c>
       <c r="B302" t="n">
-        <v>8.899635e-07</v>
+        <v>0.0001138906</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>29.60569334030151</v>
+        <v>29.6076934337616</v>
       </c>
       <c r="B303" t="n">
-        <v>8.880784e-07</v>
+        <v>0.0001138925</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>29.70769929885864</v>
+        <v>29.70769906044006</v>
       </c>
       <c r="B304" t="n">
-        <v>8.895354e-07</v>
+        <v>0.0001138989</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>29.80670499801636</v>
+        <v>29.81070518493652</v>
       </c>
       <c r="B305" t="n">
-        <v>8.889288e-07</v>
+        <v>0.000113874</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>29.92071151733398</v>
+        <v>29.91871118545532</v>
       </c>
       <c r="B306" t="n">
-        <v>8.902678e-07</v>
+        <v>0.0001139247</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>30.00871634483337</v>
+        <v>30.02571749687195</v>
       </c>
       <c r="B307" t="n">
-        <v>8.892918999999999e-07</v>
+        <v>0.0001139604</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>30.10472202301025</v>
+        <v>30.10972237586975</v>
       </c>
       <c r="B308" t="n">
-        <v>8.898855e-07</v>
+        <v>0.0001139856</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>30.21572828292847</v>
+        <v>30.20772790908813</v>
       </c>
       <c r="B309" t="n">
-        <v>8.88951e-07</v>
+        <v>0.0001139645</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>30.30673336982727</v>
+        <v>30.30873370170593</v>
       </c>
       <c r="B310" t="n">
-        <v>8.867407e-07</v>
+        <v>0.0001140087</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>30.40673923492432</v>
+        <v>30.41673970222473</v>
       </c>
       <c r="B311" t="n">
-        <v>8.88576e-07</v>
+        <v>0.0001139848</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>30.51574540138245</v>
+        <v>30.50674510002136</v>
       </c>
       <c r="B312" t="n">
-        <v>8.892205e-07</v>
+        <v>0.0001139828</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>30.60675072669983</v>
+        <v>30.60975074768066</v>
       </c>
       <c r="B313" t="n">
-        <v>8.888885e-07</v>
+        <v>0.0001139861</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>30.71075677871704</v>
+        <v>30.71175670623779</v>
       </c>
       <c r="B314" t="n">
-        <v>8.889134e-07</v>
+        <v>0.0001140309</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>30.81676268577576</v>
+        <v>30.81176233291626</v>
       </c>
       <c r="B315" t="n">
-        <v>8.873142e-07</v>
+        <v>0.0001140296</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>30.90676808357239</v>
+        <v>30.90276765823364</v>
       </c>
       <c r="B316" t="n">
-        <v>8.88308e-07</v>
+        <v>0.0001140411</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>31.00577330589294</v>
+        <v>31.01577425003052</v>
       </c>
       <c r="B317" t="n">
-        <v>8.86667e-07</v>
+        <v>0.0001141102</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>31.11477971076965</v>
+        <v>31.10677933692932</v>
       </c>
       <c r="B318" t="n">
-        <v>8.868681e-07</v>
+        <v>0.0001141284</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>31.20778512954712</v>
+        <v>31.20578479766846</v>
       </c>
       <c r="B319" t="n">
-        <v>8.879215e-07</v>
+        <v>0.0001140856</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>31.30879092216492</v>
+        <v>31.31579113006592</v>
       </c>
       <c r="B320" t="n">
-        <v>8.871764e-07</v>
+        <v>0.0001141013</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>31.41779732704163</v>
+        <v>31.40579628944397</v>
       </c>
       <c r="B321" t="n">
-        <v>8.864127e-07</v>
+        <v>0.0001141314</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>31.50980234146118</v>
+        <v>31.50580191612244</v>
       </c>
       <c r="B322" t="n">
-        <v>8.878628e-07</v>
+        <v>0.0001141894</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>31.6038076877594</v>
+        <v>31.62080860137939</v>
       </c>
       <c r="B323" t="n">
-        <v>8.868216e-07</v>
+        <v>0.0001141988</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>31.70781373977661</v>
+        <v>31.70981359481812</v>
       </c>
       <c r="B324" t="n">
-        <v>8.876376e-07</v>
+        <v>0.0001141826</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>31.81481957435608</v>
+        <v>31.8008189201355</v>
       </c>
       <c r="B325" t="n">
-        <v>8.862353e-07</v>
+        <v>0.0001142097</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>31.92382597923279</v>
+        <v>31.90282464027405</v>
       </c>
       <c r="B326" t="n">
-        <v>8.878786e-07</v>
+        <v>0.0001141976</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>32.02083158493042</v>
+        <v>32.00983095169067</v>
       </c>
       <c r="B327" t="n">
-        <v>8.876912e-07</v>
+        <v>0.0001142243</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>32.10083627700806</v>
+        <v>32.10083603858948</v>
       </c>
       <c r="B328" t="n">
-        <v>8.876639e-07</v>
+        <v>0.0001142343</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>32.20884227752686</v>
+        <v>32.20484185218811</v>
       </c>
       <c r="B329" t="n">
-        <v>8.866824e-07</v>
+        <v>0.0001142708</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>32.31284832954407</v>
+        <v>32.30984807014465</v>
       </c>
       <c r="B330" t="n">
-        <v>8.873459e-07</v>
+        <v>0.0001142875</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>32.41385412216187</v>
+        <v>32.40085315704346</v>
       </c>
       <c r="B331" t="n">
-        <v>8.872207e-07</v>
+        <v>0.0001142913</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>32.51385974884033</v>
+        <v>32.50185894966125</v>
       </c>
       <c r="B332" t="n">
-        <v>8.87077e-07</v>
+        <v>0.000114318</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>32.61686563491821</v>
+        <v>32.61086535453796</v>
       </c>
       <c r="B333" t="n">
-        <v>8.865215e-07</v>
+        <v>0.0001143014</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>32.70787072181702</v>
+        <v>32.70287036895752</v>
       </c>
       <c r="B334" t="n">
-        <v>8.870527e-07</v>
+        <v>0.0001143122</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>32.80487632751465</v>
+        <v>32.81587696075439</v>
       </c>
       <c r="B335" t="n">
-        <v>8.870032e-07</v>
+        <v>0.0001143205</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>32.91388273239136</v>
+        <v>32.90488219261169</v>
       </c>
       <c r="B336" t="n">
-        <v>8.858092e-07</v>
+        <v>0.0001143215</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>33.00288772583008</v>
+        <v>33.00388789176941</v>
       </c>
       <c r="B337" t="n">
-        <v>8.854316e-07</v>
+        <v>0.0001143373</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>33.10189342498779</v>
+        <v>33.11389398574829</v>
       </c>
       <c r="B338" t="n">
-        <v>8.871176e-07</v>
+        <v>0.0001143926</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>33.20189905166626</v>
+        <v>33.21990013122559</v>
       </c>
       <c r="B339" t="n">
-        <v>8.870383e-07</v>
+        <v>0.0001144179</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>33.30790519714355</v>
+        <v>33.32790613174438</v>
       </c>
       <c r="B340" t="n">
-        <v>8.86268e-07</v>
+        <v>0.000114466</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>33.40891098976135</v>
+        <v>33.41091084480286</v>
       </c>
       <c r="B341" t="n">
-        <v>8.849689e-07</v>
+        <v>0.0001144818</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>33.51391696929932</v>
+        <v>33.51991724967957</v>
       </c>
       <c r="B342" t="n">
-        <v>8.852415e-07</v>
+        <v>0.000114482</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>33.60592222213745</v>
+        <v>33.62092304229736</v>
       </c>
       <c r="B343" t="n">
-        <v>8.862311e-07</v>
+        <v>0.0001144737</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>33.70392799377441</v>
+        <v>33.73492956161499</v>
       </c>
       <c r="B344" t="n">
-        <v>8.847107e-07</v>
+        <v>0.0001145155</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>33.81493401527405</v>
+        <v>33.83993554115295</v>
       </c>
       <c r="B345" t="n">
-        <v>8.85682e-07</v>
+        <v>0.0001145577</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>33.91093969345093</v>
+        <v>33.90993976593018</v>
       </c>
       <c r="B346" t="n">
-        <v>8.860794e-07</v>
+        <v>0.0001145449</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>34.0009446144104</v>
+        <v>34.01694560050964</v>
       </c>
       <c r="B347" t="n">
-        <v>8.856187e-07</v>
+        <v>0.0001145291</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>34.10095071792603</v>
+        <v>34.10795068740845</v>
       </c>
       <c r="B348" t="n">
-        <v>8.843634e-07</v>
+        <v>0.0001145774</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>34.20595669746399</v>
+        <v>34.21195697784424</v>
       </c>
       <c r="B349" t="n">
-        <v>8.843888e-07</v>
+        <v>0.0001145881</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>34.30596232414246</v>
+        <v>34.31796288490295</v>
       </c>
       <c r="B350" t="n">
-        <v>8.84322e-07</v>
+        <v>0.0001146466</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>34.40896821022034</v>
+        <v>34.40796804428101</v>
       </c>
       <c r="B351" t="n">
-        <v>8.850439e-07</v>
+        <v>0.0001146819</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>34.50997376441956</v>
+        <v>34.51197409629822</v>
       </c>
       <c r="B352" t="n">
-        <v>8.854327e-07</v>
+        <v>0.0001147296</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>34.60597944259644</v>
+        <v>34.61798000335693</v>
       </c>
       <c r="B353" t="n">
-        <v>8.840837e-07</v>
+        <v>0.0001148389</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>34.7159857749939</v>
+        <v>34.70198464393616</v>
       </c>
       <c r="B354" t="n">
-        <v>8.849699e-07</v>
+        <v>0.0001148875</v>
       </c>
     </row>
     <row r="355">
@@ -3265,143 +3265,143 @@
         <v>34.80999112129211</v>
       </c>
       <c r="B355" t="n">
-        <v>8.851964e-07</v>
+        <v>0.0001148876</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>34.90999698638916</v>
+        <v>34.91699695587158</v>
       </c>
       <c r="B356" t="n">
-        <v>8.853828e-07</v>
+        <v>0.0001149464</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>35.01500272750854</v>
+        <v>35.00800228118896</v>
       </c>
       <c r="B357" t="n">
-        <v>8.830931e-07</v>
+        <v>0.0001149778</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>35.10700798034668</v>
+        <v>35.11700868606567</v>
       </c>
       <c r="B358" t="n">
-        <v>8.846362e-07</v>
+        <v>0.0001150145</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>35.20801401138306</v>
+        <v>35.22001457214355</v>
       </c>
       <c r="B359" t="n">
-        <v>8.844391e-07</v>
+        <v>0.0001150609</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>35.31201982498169</v>
+        <v>35.30101919174194</v>
       </c>
       <c r="B360" t="n">
-        <v>8.832126e-07</v>
+        <v>0.0001150536</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>35.42002606391907</v>
+        <v>35.41102528572083</v>
       </c>
       <c r="B361" t="n">
-        <v>8.839295e-07</v>
+        <v>0.0001150955</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>35.53003215789795</v>
+        <v>35.51803159713745</v>
       </c>
       <c r="B362" t="n">
-        <v>8.840194e-07</v>
+        <v>0.0001150715</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>35.61503720283508</v>
+        <v>35.60003638267517</v>
       </c>
       <c r="B363" t="n">
-        <v>8.835275e-07</v>
+        <v>0.0001151187</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>35.70704245567322</v>
+        <v>35.70004200935364</v>
       </c>
       <c r="B364" t="n">
-        <v>8.823172e-07</v>
+        <v>0.0001151477</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>35.81104826927185</v>
+        <v>35.80104780197144</v>
       </c>
       <c r="B365" t="n">
-        <v>8.826635e-07</v>
+        <v>0.000115205</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>35.91705441474915</v>
+        <v>35.91005373001099</v>
       </c>
       <c r="B366" t="n">
-        <v>8.822579e-07</v>
+        <v>0.0001152088</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>36.00805950164795</v>
+        <v>36.0020592212677</v>
       </c>
       <c r="B367" t="n">
-        <v>8.83064e-07</v>
+        <v>0.0001152541</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>36.11106538772583</v>
+        <v>36.11606574058533</v>
       </c>
       <c r="B368" t="n">
-        <v>8.819233e-07</v>
+        <v>0.0001152737</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>36.21607160568237</v>
+        <v>36.20907115936279</v>
       </c>
       <c r="B369" t="n">
-        <v>8.826011e-07</v>
+        <v>0.0001153043</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>36.30507659912109</v>
+        <v>36.31307697296143</v>
       </c>
       <c r="B370" t="n">
-        <v>8.826728e-07</v>
+        <v>0.0001153271</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>36.40708255767822</v>
+        <v>36.4260835647583</v>
       </c>
       <c r="B371" t="n">
-        <v>8.823231000000001e-07</v>
+        <v>0.0001153695</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>36.51608872413635</v>
+        <v>36.53708982467651</v>
       </c>
       <c r="B372" t="n">
-        <v>8.820428e-07</v>
+        <v>0.0001153826</v>
       </c>
     </row>
     <row r="373">
@@ -3409,279 +3409,279 @@
         <v>36.60809397697449</v>
       </c>
       <c r="B373" t="n">
-        <v>8.817881e-07</v>
+        <v>0.0001154279</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>36.70209932327271</v>
+        <v>36.71810007095337</v>
       </c>
       <c r="B374" t="n">
-        <v>8.819867e-07</v>
+        <v>0.0001154574</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>36.8031051158905</v>
+        <v>36.80910539627075</v>
       </c>
       <c r="B375" t="n">
-        <v>8.802645e-07</v>
+        <v>0.0001154692</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>36.90811109542847</v>
+        <v>36.91311120986938</v>
       </c>
       <c r="B376" t="n">
-        <v>8.814856e-07</v>
+        <v>0.0001154693</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>37.00911664962769</v>
+        <v>37.01911759376526</v>
       </c>
       <c r="B377" t="n">
-        <v>8.79641e-07</v>
+        <v>0.000115503</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>37.11412286758423</v>
+        <v>37.10012197494507</v>
       </c>
       <c r="B378" t="n">
-        <v>8.801111e-07</v>
+        <v>0.0001155222</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>37.21012854576111</v>
+        <v>37.21112823486328</v>
       </c>
       <c r="B379" t="n">
-        <v>8.811975e-07</v>
+        <v>0.0001155506</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>37.30113363265991</v>
+        <v>37.31813454627991</v>
       </c>
       <c r="B380" t="n">
-        <v>8.798422999999999e-07</v>
+        <v>0.0001155953</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>37.40513944625854</v>
+        <v>37.40013909339905</v>
       </c>
       <c r="B381" t="n">
-        <v>8.730286e-07</v>
+        <v>0.0001156149</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>37.508145570755</v>
+        <v>37.51114535331726</v>
       </c>
       <c r="B382" t="n">
-        <v>8.854933e-07</v>
+        <v>0.0001156563</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>37.60915112495422</v>
+        <v>37.62415194511414</v>
       </c>
       <c r="B383" t="n">
-        <v>8.840047e-07</v>
+        <v>0.0001156247</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>37.7121570110321</v>
+        <v>37.7341582775116</v>
       </c>
       <c r="B384" t="n">
-        <v>8.821664e-07</v>
+        <v>0.0001156499</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>37.81516289710999</v>
+        <v>37.83216404914856</v>
       </c>
       <c r="B385" t="n">
-        <v>8.755645e-07</v>
+        <v>0.0001156877</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>37.92516922950745</v>
+        <v>37.9191689491272</v>
       </c>
       <c r="B386" t="n">
-        <v>8.778222e-07</v>
+        <v>0.0001157151</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>38.02317500114441</v>
+        <v>38.00117349624634</v>
       </c>
       <c r="B387" t="n">
-        <v>8.766746e-07</v>
+        <v>0.0001157037</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>38.1111798286438</v>
+        <v>38.12118029594421</v>
       </c>
       <c r="B388" t="n">
-        <v>8.788646e-07</v>
+        <v>0.0001157328</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>38.20218515396118</v>
+        <v>38.23618698120117</v>
       </c>
       <c r="B389" t="n">
-        <v>8.795941e-07</v>
+        <v>0.0001157693</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>38.31519174575806</v>
+        <v>38.34119319915771</v>
       </c>
       <c r="B390" t="n">
-        <v>8.772545e-07</v>
+        <v>0.0001157738</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>38.40719676017761</v>
+        <v>38.41219711303711</v>
       </c>
       <c r="B391" t="n">
-        <v>8.776738e-07</v>
+        <v>0.0001158148</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>38.50820255279541</v>
+        <v>38.51920318603516</v>
       </c>
       <c r="B392" t="n">
-        <v>8.765826e-07</v>
+        <v>0.0001158656</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>38.61420869827271</v>
+        <v>38.60020780563354</v>
       </c>
       <c r="B393" t="n">
-        <v>8.776461e-07</v>
+        <v>0.0001158483</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>38.72521495819092</v>
+        <v>38.71121406555176</v>
       </c>
       <c r="B394" t="n">
-        <v>8.77491e-07</v>
+        <v>0.0001159393</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>38.83022093772888</v>
+        <v>38.8182201385498</v>
       </c>
       <c r="B395" t="n">
-        <v>8.770842e-07</v>
+        <v>0.0001159706</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>38.90122509002686</v>
+        <v>38.90022492408752</v>
       </c>
       <c r="B396" t="n">
-        <v>8.774965e-07</v>
+        <v>0.000116002</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>39.00623106956482</v>
+        <v>39.01823163032532</v>
       </c>
       <c r="B397" t="n">
-        <v>8.7673e-07</v>
+        <v>0.0001160172</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>39.10523676872253</v>
+        <v>39.1262378692627</v>
       </c>
       <c r="B398" t="n">
-        <v>8.773946e-07</v>
+        <v>0.000116052</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>39.21524310112</v>
+        <v>39.23624420166016</v>
       </c>
       <c r="B399" t="n">
-        <v>8.77528e-07</v>
+        <v>0.0001160495</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>39.30724811553955</v>
+        <v>39.30924844741821</v>
       </c>
       <c r="B400" t="n">
-        <v>8.774202e-07</v>
+        <v>0.0001160836</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>39.41125440597534</v>
+        <v>39.40125346183777</v>
       </c>
       <c r="B401" t="n">
-        <v>8.75834e-07</v>
+        <v>0.0001160767</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>39.51926040649414</v>
+        <v>39.51125979423523</v>
       </c>
       <c r="B402" t="n">
-        <v>8.771056e-07</v>
+        <v>0.0001160885</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>39.60026502609253</v>
+        <v>39.60326528549194</v>
       </c>
       <c r="B403" t="n">
-        <v>8.755662e-07</v>
+        <v>0.0001160529</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>39.70927143096924</v>
+        <v>39.71727180480957</v>
       </c>
       <c r="B404" t="n">
-        <v>8.76759e-07</v>
+        <v>0.0001161072</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>39.81727743148804</v>
+        <v>39.80027651786804</v>
       </c>
       <c r="B405" t="n">
-        <v>8.756957e-07</v>
+        <v>0.0001160523</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>39.90828275680542</v>
+        <v>39.9172830581665</v>
       </c>
       <c r="B406" t="n">
-        <v>8.765785e-07</v>
+        <v>0.0001161044</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>40.02528929710388</v>
+        <v>40.02628946304321</v>
       </c>
       <c r="B407" t="n">
-        <v>8.758767e-07</v>
+        <v>0.0001160944</v>
       </c>
     </row>
   </sheetData>
